--- a/Data/Modeling Stage/Feature Selection/Nova_IMS_feature_selection_Date_threshold_50.xlsx
+++ b/Data/Modeling Stage/Feature Selection/Nova_IMS_feature_selection_Date_threshold_50.xlsx
@@ -91,13 +91,13 @@
     <t>Clicks on folder</t>
   </si>
   <si>
-    <t>Links viewed</t>
-  </si>
-  <si>
     <t>Average grade of assignments</t>
   </si>
   <si>
     <t>Average session duration (min)</t>
+  </si>
+  <si>
+    <t>Links viewed</t>
   </si>
   <si>
     <t>Assignments viewed</t>
@@ -1064,7 +1064,7 @@
         <v>1</v>
       </c>
       <c r="C18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1160,7 +1160,7 @@
         <v>1</v>
       </c>
       <c r="C21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1775,7 +1775,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -1807,7 +1807,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -1839,16 +1839,16 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
       </c>
       <c r="C7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -1871,16 +1871,16 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -1903,7 +1903,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -1912,22 +1912,22 @@
         <v>1</v>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="b">
         <v>1</v>
       </c>
       <c r="G9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="b">
         <v>1</v>
       </c>
       <c r="I9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9">
         <v>6</v>
@@ -1935,7 +1935,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B10" t="b">
         <v>0</v>
@@ -1967,71 +1967,71 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
       </c>
       <c r="C11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="b">
         <v>1</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
       </c>
       <c r="I11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
       </c>
       <c r="C12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="b">
         <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -2063,31 +2063,31 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="b">
         <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>5</v>
@@ -2095,7 +2095,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -2127,7 +2127,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -2290,10 +2290,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
@@ -2319,7 +2319,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22" t="b">
         <v>1</v>
@@ -2511,7 +2511,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B28" t="b">
         <v>1</v>
@@ -2543,16 +2543,16 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="b">
         <v>0</v>
       </c>
       <c r="D29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
@@ -2575,7 +2575,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -2584,7 +2584,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
@@ -2602,12 +2602,12 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -2639,7 +2639,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -2671,7 +2671,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -2703,7 +2703,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -2812,7 +2812,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -2972,7 +2972,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -3004,7 +3004,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -3036,7 +3036,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -3068,7 +3068,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -3100,22 +3100,22 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
       </c>
       <c r="F11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
@@ -3132,13 +3132,13 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
@@ -3150,13 +3150,13 @@
         <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>6</v>
@@ -3164,7 +3164,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -3196,7 +3196,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
@@ -3208,19 +3208,19 @@
         <v>1</v>
       </c>
       <c r="E14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
         <v>6</v>
@@ -3228,7 +3228,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B15" t="b">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>1</v>
       </c>
       <c r="D15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
@@ -3255,12 +3255,12 @@
         <v>1</v>
       </c>
       <c r="J15">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -3275,24 +3275,24 @@
         <v>1</v>
       </c>
       <c r="F16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
@@ -3304,19 +3304,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>5</v>
@@ -3324,13 +3324,13 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
@@ -3342,13 +3342,13 @@
         <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>5</v>
@@ -3356,7 +3356,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B19" t="b">
         <v>1</v>
@@ -3368,19 +3368,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
         <v>5</v>
@@ -3400,7 +3400,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="b">
         <v>1</v>
@@ -3415,7 +3415,7 @@
         <v>1</v>
       </c>
       <c r="J20">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -3452,10 +3452,10 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="b">
         <v>1</v>
@@ -3467,16 +3467,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
       </c>
       <c r="I22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>4</v>
@@ -3484,10 +3484,10 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="b">
         <v>1</v>
@@ -3499,16 +3499,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="b">
         <v>1</v>
       </c>
       <c r="I23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23">
         <v>4</v>
@@ -3516,31 +3516,31 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
       </c>
       <c r="F24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
       <c r="I24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24">
         <v>4</v>
@@ -3548,7 +3548,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -3557,7 +3557,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
@@ -3575,12 +3575,12 @@
         <v>1</v>
       </c>
       <c r="J25">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -3592,19 +3592,19 @@
         <v>0</v>
       </c>
       <c r="E26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="b">
         <v>1</v>
       </c>
       <c r="I26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26">
         <v>3</v>
@@ -3612,7 +3612,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -3644,19 +3644,19 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
       </c>
       <c r="C28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" t="b">
         <v>0</v>
       </c>
       <c r="E28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28" t="b">
         <v>1</v>
@@ -3676,7 +3676,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -3708,7 +3708,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -3740,7 +3740,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -3945,7 +3945,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -4073,7 +4073,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -4105,7 +4105,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -4137,7 +4137,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -4169,16 +4169,16 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="b">
         <v>1</v>
       </c>
       <c r="D9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -4201,16 +4201,16 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -4219,13 +4219,13 @@
         <v>1</v>
       </c>
       <c r="G10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
       <c r="I10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
         <v>6</v>
@@ -4233,7 +4233,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -4242,10 +4242,10 @@
         <v>1</v>
       </c>
       <c r="D11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -4265,13 +4265,13 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
@@ -4283,13 +4283,13 @@
         <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>6</v>
@@ -4297,10 +4297,10 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
@@ -4315,21 +4315,21 @@
         <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
@@ -4344,24 +4344,24 @@
         <v>1</v>
       </c>
       <c r="F14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B15" t="b">
         <v>0</v>
@@ -4370,13 +4370,13 @@
         <v>1</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
       </c>
       <c r="F15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
@@ -4393,13 +4393,13 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
@@ -4411,13 +4411,13 @@
         <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -4425,31 +4425,31 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
       </c>
       <c r="C17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="b">
         <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
         <v>5</v>
@@ -4457,7 +4457,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
@@ -4489,10 +4489,10 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="b">
         <v>1</v>
@@ -4501,19 +4501,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>4</v>
@@ -4553,39 +4553,39 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
       </c>
       <c r="E21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
       </c>
       <c r="I21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B22" t="b">
         <v>1</v>
@@ -4617,7 +4617,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -4629,19 +4629,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="b">
         <v>1</v>
       </c>
       <c r="I23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23">
         <v>3</v>
@@ -4681,10 +4681,10 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="b">
         <v>0</v>
@@ -4696,16 +4696,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
       </c>
       <c r="I25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>3</v>
@@ -4713,7 +4713,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B26" t="b">
         <v>1</v>
@@ -4777,7 +4777,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -4809,7 +4809,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -4841,7 +4841,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -4873,7 +4873,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -4882,13 +4882,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
       </c>
       <c r="F31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
@@ -4905,13 +4905,13 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
       </c>
       <c r="C32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" t="b">
         <v>0</v>
@@ -4920,7 +4920,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
@@ -4937,16 +4937,16 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
       </c>
       <c r="C33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="b">
         <v>0</v>
@@ -4969,7 +4969,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>

--- a/Data/Modeling Stage/Feature Selection/Nova_IMS_feature_selection_Date_threshold_50.xlsx
+++ b/Data/Modeling Stage/Feature Selection/Nova_IMS_feature_selection_Date_threshold_50.xlsx
@@ -61,25 +61,25 @@
     <t>Largest period of inactivity (h)</t>
   </si>
   <si>
+    <t>Start of Session 2 (%)</t>
+  </si>
+  <si>
+    <t>Clicks (% of course total)</t>
+  </si>
+  <si>
     <t>Start of Session 1 (%)</t>
   </si>
   <si>
-    <t>Start of Session 2 (%)</t>
+    <t>Clicks on course</t>
   </si>
   <si>
     <t>Number of sessions</t>
   </si>
   <si>
-    <t>Start of Session 10 (%)</t>
+    <t>Number of clicks</t>
   </si>
   <si>
-    <t>Clicks (% of course total)</t>
-  </si>
-  <si>
-    <t>Clicks on course</t>
-  </si>
-  <si>
-    <t>Number of clicks</t>
+    <t>Start of Session 10 (%)</t>
   </si>
   <si>
     <t>Clicks per session</t>
@@ -91,16 +91,19 @@
     <t>Clicks on folder</t>
   </si>
   <si>
+    <t>Links viewed</t>
+  </si>
+  <si>
     <t>Average grade of assignments</t>
   </si>
   <si>
     <t>Average session duration (min)</t>
   </si>
   <si>
-    <t>Links viewed</t>
+    <t>Assignments viewed</t>
   </si>
   <si>
-    <t>Assignments viewed</t>
+    <t>Start of Session 8 (%)</t>
   </si>
   <si>
     <t>Days with no interaction (%)</t>
@@ -109,10 +112,10 @@
     <t>Start of Session 5 (%)</t>
   </si>
   <si>
-    <t>Start of Session 3 (%)</t>
+    <t>Start of Session 4 (%)</t>
   </si>
   <si>
-    <t>Start of Session 4 (%)</t>
+    <t>Start of Session 3 (%)</t>
   </si>
   <si>
     <t>Number of days</t>
@@ -133,9 +136,6 @@
     <t>Start of Session 6 (%)</t>
   </si>
   <si>
-    <t>Start of Session 8 (%)</t>
-  </si>
-  <si>
     <t>Assignments submitted</t>
   </si>
   <si>
@@ -145,10 +145,10 @@
     <t>Discussions viewed</t>
   </si>
   <si>
-    <t>Start of Session 7 (%)</t>
+    <t>Submissions (% of course total)</t>
   </si>
   <si>
-    <t>Submissions (% of course total)</t>
+    <t>Start of Session 7 (%)</t>
   </si>
 </sst>
 </file>
@@ -680,10 +680,10 @@
         <v>1</v>
       </c>
       <c r="C6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -715,7 +715,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -724,16 +724,16 @@
         <v>1</v>
       </c>
       <c r="G7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="b">
         <v>1</v>
       </c>
       <c r="I7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -741,7 +741,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -765,7 +765,7 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -776,13 +776,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
       </c>
       <c r="E9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="b">
         <v>1</v>
@@ -805,10 +805,10 @@
         <v>18</v>
       </c>
       <c r="B10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
@@ -820,13 +820,13 @@
         <v>1</v>
       </c>
       <c r="G10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
       <c r="I10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
         <v>6</v>
@@ -837,7 +837,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>1</v>
       </c>
       <c r="J11">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -869,7 +869,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="b">
         <v>0</v>
@@ -878,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="b">
         <v>1</v>
@@ -1064,7 +1064,7 @@
         <v>1</v>
       </c>
       <c r="C18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1125,16 +1125,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="b">
         <v>1</v>
@@ -1157,16 +1157,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="b">
         <v>1</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1189,7 +1189,7 @@
         <v>30</v>
       </c>
       <c r="B22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
@@ -1213,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1221,7 +1221,7 @@
         <v>31</v>
       </c>
       <c r="B23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
@@ -1245,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1259,13 +1259,13 @@
         <v>0</v>
       </c>
       <c r="D24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
       </c>
       <c r="F24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
@@ -1323,13 +1323,13 @@
         <v>0</v>
       </c>
       <c r="D26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
       </c>
       <c r="F26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
@@ -1349,7 +1349,7 @@
         <v>35</v>
       </c>
       <c r="B27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="b">
         <v>0</v>
@@ -1361,7 +1361,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
@@ -1381,13 +1381,13 @@
         <v>36</v>
       </c>
       <c r="B28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" t="b">
         <v>0</v>
       </c>
       <c r="D28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
@@ -1419,13 +1419,13 @@
         <v>0</v>
       </c>
       <c r="D29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
       </c>
       <c r="F29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
@@ -1711,7 +1711,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -1807,16 +1807,16 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
       </c>
       <c r="C6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -1839,16 +1839,16 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -1866,21 +1866,21 @@
         <v>1</v>
       </c>
       <c r="J7">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -1903,7 +1903,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -1912,22 +1912,22 @@
         <v>1</v>
       </c>
       <c r="D9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="b">
         <v>1</v>
       </c>
       <c r="G9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="b">
         <v>1</v>
       </c>
       <c r="I9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>6</v>
@@ -1935,16 +1935,16 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
       </c>
       <c r="D10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -1967,31 +1967,31 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
       </c>
       <c r="C11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
       </c>
       <c r="E11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="b">
         <v>1</v>
       </c>
       <c r="G11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
       </c>
       <c r="I11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
         <v>6</v>
@@ -1999,7 +1999,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -2008,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
@@ -2026,12 +2026,12 @@
         <v>1</v>
       </c>
       <c r="J12">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -2095,7 +2095,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -2127,7 +2127,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -2159,7 +2159,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" t="b">
         <v>0</v>
@@ -2191,7 +2191,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B18" t="b">
         <v>0</v>
@@ -2203,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="b">
         <v>1</v>
@@ -2218,12 +2218,12 @@
         <v>1</v>
       </c>
       <c r="J18">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B19" t="b">
         <v>0</v>
@@ -2232,13 +2232,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
       </c>
       <c r="F19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
@@ -2255,7 +2255,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B20" t="b">
         <v>0</v>
@@ -2264,13 +2264,13 @@
         <v>0</v>
       </c>
       <c r="D20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
       </c>
       <c r="F20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
@@ -2287,13 +2287,13 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
@@ -2319,7 +2319,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B22" t="b">
         <v>1</v>
@@ -2331,7 +2331,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="b">
         <v>1</v>
@@ -2346,15 +2346,15 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
@@ -2363,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="b">
         <v>1</v>
@@ -2383,7 +2383,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -2415,7 +2415,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -2447,7 +2447,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -2479,7 +2479,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -2511,7 +2511,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B28" t="b">
         <v>1</v>
@@ -2543,16 +2543,16 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" t="b">
         <v>0</v>
       </c>
       <c r="D29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
@@ -2575,7 +2575,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -2584,7 +2584,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
@@ -2602,12 +2602,12 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -2639,7 +2639,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -2671,7 +2671,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -2703,7 +2703,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -2735,7 +2735,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B35" t="b">
         <v>0</v>
@@ -2812,7 +2812,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -2844,7 +2844,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -2876,7 +2876,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -2908,13 +2908,13 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
       </c>
       <c r="C5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
@@ -2935,12 +2935,12 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -2949,7 +2949,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -2967,12 +2967,12 @@
         <v>1</v>
       </c>
       <c r="J6">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -3004,7 +3004,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -3036,16 +3036,16 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
       </c>
       <c r="C9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -3068,16 +3068,16 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -3095,18 +3095,18 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
@@ -3118,13 +3118,13 @@
         <v>1</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
       </c>
       <c r="I11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>6</v>
@@ -3132,7 +3132,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -3164,16 +3164,16 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -3182,21 +3182,21 @@
         <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
@@ -3205,36 +3205,36 @@
         <v>1</v>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" t="b">
         <v>0</v>
       </c>
       <c r="C15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
@@ -3255,18 +3255,18 @@
         <v>1</v>
       </c>
       <c r="J15">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
       </c>
       <c r="C16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
@@ -3287,18 +3287,18 @@
         <v>1</v>
       </c>
       <c r="J16">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
       </c>
       <c r="C17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
@@ -3319,39 +3319,39 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="B18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -3362,7 +3362,7 @@
         <v>1</v>
       </c>
       <c r="C19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
@@ -3383,15 +3383,15 @@
         <v>1</v>
       </c>
       <c r="J19">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="B20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
@@ -3403,7 +3403,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
@@ -3420,10 +3420,10 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="b">
         <v>1</v>
@@ -3435,16 +3435,16 @@
         <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
       </c>
       <c r="I21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>4</v>
@@ -3452,13 +3452,13 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
@@ -3470,13 +3470,13 @@
         <v>1</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
       </c>
       <c r="I22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22">
         <v>4</v>
@@ -3484,16 +3484,16 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
       </c>
       <c r="C23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
@@ -3516,34 +3516,34 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
       </c>
       <c r="D24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
       </c>
       <c r="F24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
       <c r="I24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -3580,7 +3580,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -3592,19 +3592,19 @@
         <v>0</v>
       </c>
       <c r="E26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" t="b">
         <v>1</v>
       </c>
       <c r="I26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26">
         <v>3</v>
@@ -3612,22 +3612,22 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
       </c>
       <c r="C27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
       </c>
       <c r="F27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
@@ -3639,18 +3639,18 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
       </c>
       <c r="C28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" t="b">
         <v>0</v>
@@ -3671,12 +3671,12 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -3708,7 +3708,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -3717,13 +3717,13 @@
         <v>0</v>
       </c>
       <c r="D30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
       </c>
       <c r="F30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
@@ -3804,7 +3804,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -3836,7 +3836,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -3868,7 +3868,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B35" t="b">
         <v>0</v>
@@ -3945,7 +3945,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -3977,13 +3977,13 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
       </c>
       <c r="C3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
@@ -4004,12 +4004,12 @@
         <v>1</v>
       </c>
       <c r="J3">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -4018,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -4036,12 +4036,12 @@
         <v>1</v>
       </c>
       <c r="J4">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -4050,7 +4050,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -4068,21 +4068,21 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
       </c>
       <c r="C6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -4105,7 +4105,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -4137,16 +4137,16 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
       </c>
       <c r="C8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -4169,10 +4169,10 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="b">
         <v>1</v>
@@ -4187,30 +4187,30 @@
         <v>1</v>
       </c>
       <c r="G9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="b">
         <v>1</v>
       </c>
       <c r="I9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B10" t="b">
         <v>0</v>
       </c>
       <c r="C10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -4233,13 +4233,13 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
@@ -4248,7 +4248,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
@@ -4260,12 +4260,12 @@
         <v>1</v>
       </c>
       <c r="J11">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -4274,7 +4274,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -4292,12 +4292,12 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -4329,31 +4329,31 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
       </c>
       <c r="C14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
         <v>5</v>
@@ -4361,22 +4361,22 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B15" t="b">
         <v>0</v>
       </c>
       <c r="C15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
@@ -4393,13 +4393,13 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
@@ -4411,13 +4411,13 @@
         <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -4425,7 +4425,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
@@ -4437,10 +4437,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
@@ -4457,13 +4457,13 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
       </c>
       <c r="C18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
@@ -4484,36 +4484,36 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
       </c>
       <c r="E19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
         <v>4</v>
@@ -4521,10 +4521,10 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="b">
         <v>1</v>
@@ -4533,19 +4533,19 @@
         <v>0</v>
       </c>
       <c r="E20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
       </c>
       <c r="G20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
       </c>
       <c r="I20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>4</v>
@@ -4553,13 +4553,13 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
@@ -4571,13 +4571,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
       </c>
       <c r="I21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>3</v>
@@ -4585,13 +4585,13 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
@@ -4603,13 +4603,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
       </c>
       <c r="I22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22">
         <v>3</v>
@@ -4617,7 +4617,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -4649,7 +4649,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -4681,10 +4681,10 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="B25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="b">
         <v>0</v>
@@ -4696,16 +4696,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
       </c>
       <c r="I25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25">
         <v>3</v>
@@ -4713,13 +4713,13 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="B26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
@@ -4731,13 +4731,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" t="b">
         <v>1</v>
       </c>
       <c r="I26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26">
         <v>3</v>
@@ -4745,7 +4745,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -4760,24 +4760,24 @@
         <v>0</v>
       </c>
       <c r="F27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
       <c r="I27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -4809,7 +4809,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -4841,16 +4841,16 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30" t="b">
         <v>0</v>
       </c>
       <c r="D30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
@@ -4873,7 +4873,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -4882,13 +4882,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
       </c>
       <c r="F31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
@@ -4905,7 +4905,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -4937,7 +4937,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>

--- a/Data/Modeling Stage/Feature Selection/Nova_IMS_feature_selection_Date_threshold_50.xlsx
+++ b/Data/Modeling Stage/Feature Selection/Nova_IMS_feature_selection_Date_threshold_50.xlsx
@@ -64,6 +64,12 @@
     <t>Start of Session 2 (%)</t>
   </si>
   <si>
+    <t>Number of sessions</t>
+  </si>
+  <si>
+    <t>Start of Session 10 (%)</t>
+  </si>
+  <si>
     <t>Clicks (% of course total)</t>
   </si>
   <si>
@@ -73,13 +79,7 @@
     <t>Clicks on course</t>
   </si>
   <si>
-    <t>Number of sessions</t>
-  </si>
-  <si>
     <t>Number of clicks</t>
-  </si>
-  <si>
-    <t>Start of Session 10 (%)</t>
   </si>
   <si>
     <t>Clicks per session</t>
@@ -103,19 +103,19 @@
     <t>Assignments viewed</t>
   </si>
   <si>
-    <t>Start of Session 8 (%)</t>
+    <t>Days with no interaction (%)</t>
   </si>
   <si>
-    <t>Days with no interaction (%)</t>
+    <t>Start of Session 8 (%)</t>
   </si>
   <si>
     <t>Start of Session 5 (%)</t>
   </si>
   <si>
-    <t>Start of Session 4 (%)</t>
+    <t>Start of Session 3 (%)</t>
   </si>
   <si>
-    <t>Start of Session 3 (%)</t>
+    <t>Start of Session 4 (%)</t>
   </si>
   <si>
     <t>Number of days</t>
@@ -712,7 +712,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
@@ -724,16 +724,16 @@
         <v>1</v>
       </c>
       <c r="G7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="b">
         <v>1</v>
       </c>
       <c r="I7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -741,16 +741,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="b">
         <v>1</v>
@@ -776,10 +776,10 @@
         <v>1</v>
       </c>
       <c r="C9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -788,13 +788,13 @@
         <v>1</v>
       </c>
       <c r="G9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="b">
         <v>1</v>
       </c>
       <c r="I9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>6</v>
@@ -837,7 +837,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>1</v>
       </c>
       <c r="J11">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -869,7 +869,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="b">
         <v>0</v>
@@ -878,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="b">
         <v>1</v>
@@ -1125,16 +1125,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="b">
         <v>1</v>
@@ -1157,16 +1157,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="b">
         <v>1</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1221,7 +1221,7 @@
         <v>31</v>
       </c>
       <c r="B23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
@@ -1245,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1711,7 +1711,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -1807,7 +1807,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" t="b">
         <v>0</v>
@@ -1871,7 +1871,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" t="b">
         <v>0</v>
@@ -1935,7 +1935,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -1944,10 +1944,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="b">
         <v>1</v>
@@ -1967,7 +1967,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -1976,7 +1976,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
@@ -1994,36 +1994,36 @@
         <v>1</v>
       </c>
       <c r="J11">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
       </c>
       <c r="C12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="b">
         <v>0</v>
       </c>
       <c r="E12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="b">
         <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>5</v>
@@ -2031,7 +2031,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -2063,13 +2063,13 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -2081,13 +2081,13 @@
         <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
         <v>5</v>
@@ -2191,7 +2191,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B18" t="b">
         <v>0</v>
@@ -2203,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="b">
         <v>1</v>
@@ -2218,12 +2218,12 @@
         <v>1</v>
       </c>
       <c r="J18">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B19" t="b">
         <v>0</v>
@@ -2232,13 +2232,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
       </c>
       <c r="F19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
@@ -2255,7 +2255,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B20" t="b">
         <v>0</v>
@@ -2264,13 +2264,13 @@
         <v>0</v>
       </c>
       <c r="D20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
       </c>
       <c r="F20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
@@ -2287,7 +2287,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B21" t="b">
         <v>1</v>
@@ -2319,7 +2319,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B22" t="b">
         <v>1</v>
@@ -2331,7 +2331,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="b">
         <v>1</v>
@@ -2346,15 +2346,15 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
@@ -2363,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" t="b">
         <v>1</v>
@@ -2671,7 +2671,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -2812,7 +2812,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -2844,7 +2844,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -2876,7 +2876,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -2908,13 +2908,13 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
       </c>
       <c r="C5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
@@ -2935,12 +2935,12 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -2949,7 +2949,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -2967,12 +2967,12 @@
         <v>1</v>
       </c>
       <c r="J6">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -3004,7 +3004,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -3036,16 +3036,16 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
       </c>
       <c r="C9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -3068,13 +3068,13 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" t="b">
         <v>0</v>
       </c>
       <c r="C10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
@@ -3095,21 +3095,21 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="b">
         <v>1</v>
       </c>
       <c r="D11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -3118,13 +3118,13 @@
         <v>1</v>
       </c>
       <c r="G11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
       </c>
       <c r="I11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
         <v>6</v>
@@ -3132,7 +3132,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -3164,16 +3164,16 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -3182,24 +3182,24 @@
         <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
@@ -3214,27 +3214,27 @@
         <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>1</v>
       </c>
       <c r="F15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
@@ -3255,18 +3255,18 @@
         <v>1</v>
       </c>
       <c r="J15">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
       </c>
       <c r="C16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
@@ -3275,16 +3275,16 @@
         <v>1</v>
       </c>
       <c r="F16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -3292,66 +3292,66 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="B18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -3362,7 +3362,7 @@
         <v>1</v>
       </c>
       <c r="C19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
@@ -3383,7 +3383,7 @@
         <v>1</v>
       </c>
       <c r="J19">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -3394,7 +3394,7 @@
         <v>1</v>
       </c>
       <c r="C20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
@@ -3415,18 +3415,18 @@
         <v>1</v>
       </c>
       <c r="J20">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B21" t="b">
         <v>1</v>
       </c>
       <c r="C21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
@@ -3438,21 +3438,21 @@
         <v>1</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
       </c>
       <c r="I21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
@@ -3461,13 +3461,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
@@ -3484,31 +3484,31 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
       </c>
       <c r="F23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="b">
         <v>1</v>
       </c>
       <c r="I23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>4</v>
@@ -3516,10 +3516,10 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
@@ -3531,16 +3531,16 @@
         <v>0</v>
       </c>
       <c r="F24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
       <c r="I24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24">
         <v>3</v>
@@ -3548,7 +3548,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -3580,7 +3580,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -3592,19 +3592,19 @@
         <v>0</v>
       </c>
       <c r="E26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="b">
         <v>1</v>
       </c>
       <c r="I26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26">
         <v>3</v>
@@ -3612,22 +3612,22 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
       </c>
       <c r="C27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
       </c>
       <c r="F27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
@@ -3639,12 +3639,12 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -3653,13 +3653,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
       </c>
       <c r="F28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
@@ -3676,7 +3676,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -3708,7 +3708,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -3717,13 +3717,13 @@
         <v>0</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
       </c>
       <c r="F30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
@@ -3740,7 +3740,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -3749,13 +3749,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
       </c>
       <c r="F31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
@@ -3772,13 +3772,13 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
       </c>
       <c r="C32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" t="b">
         <v>0</v>
@@ -3799,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -3836,7 +3836,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -3868,7 +3868,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B35" t="b">
         <v>0</v>
@@ -3945,7 +3945,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -3977,13 +3977,13 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
       </c>
       <c r="C3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
@@ -4004,12 +4004,12 @@
         <v>1</v>
       </c>
       <c r="J3">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -4018,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -4036,12 +4036,12 @@
         <v>1</v>
       </c>
       <c r="J4">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -4050,7 +4050,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -4068,21 +4068,21 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
       </c>
       <c r="C6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -4105,7 +4105,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -4137,16 +4137,16 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
       </c>
       <c r="C8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -4169,10 +4169,10 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="b">
         <v>1</v>
@@ -4187,30 +4187,30 @@
         <v>1</v>
       </c>
       <c r="G9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="b">
         <v>1</v>
       </c>
       <c r="I9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B10" t="b">
         <v>0</v>
       </c>
       <c r="C10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -4233,16 +4233,16 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -4251,21 +4251,21 @@
         <v>1</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
       </c>
       <c r="I11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -4274,33 +4274,33 @@
         <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
@@ -4315,33 +4315,33 @@
         <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
       </c>
       <c r="C14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -4356,24 +4356,24 @@
         <v>1</v>
       </c>
       <c r="J14">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B15" t="b">
         <v>0</v>
       </c>
       <c r="C15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
       </c>
       <c r="E15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="b">
         <v>1</v>
@@ -4425,13 +4425,13 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
       </c>
       <c r="C17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
@@ -4440,16 +4440,16 @@
         <v>1</v>
       </c>
       <c r="F17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>5</v>
@@ -4457,13 +4457,13 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
       </c>
       <c r="C18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
@@ -4484,47 +4484,47 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
       </c>
       <c r="E19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="b">
         <v>1</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="b">
         <v>1</v>
@@ -4533,19 +4533,19 @@
         <v>0</v>
       </c>
       <c r="E20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
       </c>
       <c r="G20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
       </c>
       <c r="I20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20">
         <v>4</v>
@@ -4553,10 +4553,10 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="b">
         <v>1</v>
@@ -4571,59 +4571,59 @@
         <v>0</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
       </c>
       <c r="I21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
       </c>
       <c r="E22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
       </c>
       <c r="I22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
       </c>
       <c r="C23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
@@ -4644,18 +4644,18 @@
         <v>1</v>
       </c>
       <c r="J23">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
       </c>
       <c r="C24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
@@ -4676,21 +4676,21 @@
         <v>1</v>
       </c>
       <c r="J24">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
       </c>
       <c r="C25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
@@ -4699,13 +4699,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
       </c>
       <c r="I25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>3</v>
@@ -4713,16 +4713,16 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
       </c>
       <c r="C26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
@@ -4731,13 +4731,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="b">
         <v>1</v>
       </c>
       <c r="I26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26">
         <v>3</v>
@@ -4745,22 +4745,22 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
       </c>
       <c r="C27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
       </c>
       <c r="F27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
@@ -4772,21 +4772,21 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
@@ -4804,12 +4804,12 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -4818,7 +4818,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
@@ -4827,27 +4827,27 @@
         <v>0</v>
       </c>
       <c r="G29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
       <c r="I29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B30" t="b">
         <v>1</v>
       </c>
       <c r="C30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
@@ -4868,27 +4868,27 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
       </c>
       <c r="C31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
       </c>
       <c r="F31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
@@ -4900,12 +4900,12 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -4914,7 +4914,7 @@
         <v>1</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="b">
         <v>0</v>
@@ -4932,12 +4932,12 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -4969,16 +4969,16 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
       </c>
       <c r="C34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34" t="b">
         <v>0</v>
@@ -5007,7 +5007,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35" t="b">
         <v>0</v>
@@ -5028,7 +5028,7 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Modeling Stage/Feature Selection/Nova_IMS_feature_selection_Date_threshold_50.xlsx
+++ b/Data/Modeling Stage/Feature Selection/Nova_IMS_feature_selection_Date_threshold_50.xlsx
@@ -61,25 +61,25 @@
     <t>Largest period of inactivity (h)</t>
   </si>
   <si>
-    <t>Start of Session 2 (%)</t>
-  </si>
-  <si>
-    <t>Number of sessions</t>
-  </si>
-  <si>
-    <t>Start of Session 10 (%)</t>
-  </si>
-  <si>
-    <t>Clicks (% of course total)</t>
-  </si>
-  <si>
     <t>Start of Session 1 (%)</t>
   </si>
   <si>
     <t>Clicks on course</t>
   </si>
   <si>
+    <t>Number of sessions</t>
+  </si>
+  <si>
+    <t>Clicks (% of course total)</t>
+  </si>
+  <si>
+    <t>Start of Session 2 (%)</t>
+  </si>
+  <si>
     <t>Number of clicks</t>
+  </si>
+  <si>
+    <t>Start of Session 10 (%)</t>
   </si>
   <si>
     <t>Clicks per session</t>
@@ -680,10 +680,10 @@
         <v>1</v>
       </c>
       <c r="C6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -712,10 +712,10 @@
         <v>1</v>
       </c>
       <c r="C7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -744,13 +744,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="b">
         <v>1</v>
@@ -765,7 +765,7 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -805,13 +805,13 @@
         <v>18</v>
       </c>
       <c r="B10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
       </c>
       <c r="D10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -837,7 +837,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>1</v>
       </c>
       <c r="J11">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -869,7 +869,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="b">
         <v>0</v>
@@ -878,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="b">
         <v>1</v>
@@ -1157,10 +1157,10 @@
         <v>29</v>
       </c>
       <c r="B21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
@@ -1711,7 +1711,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -1807,16 +1807,16 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
       </c>
       <c r="C6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -1839,10 +1839,10 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
@@ -1866,15 +1866,15 @@
         <v>1</v>
       </c>
       <c r="J7">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -1898,18 +1898,18 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
@@ -1921,13 +1921,13 @@
         <v>1</v>
       </c>
       <c r="G9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="b">
         <v>1</v>
       </c>
       <c r="I9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9">
         <v>6</v>
@@ -1935,31 +1935,31 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
       </c>
       <c r="C10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
       </c>
       <c r="E10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="b">
         <v>1</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
       <c r="I10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>6</v>
@@ -1967,7 +1967,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -1976,7 +1976,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
@@ -1994,36 +1994,36 @@
         <v>1</v>
       </c>
       <c r="J11">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
       </c>
       <c r="C12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="b">
         <v>0</v>
       </c>
       <c r="E12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="b">
         <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
         <v>5</v>
@@ -2031,7 +2031,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -2063,13 +2063,13 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -2081,13 +2081,13 @@
         <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>5</v>
@@ -2159,7 +2159,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B17" t="b">
         <v>0</v>
@@ -2191,7 +2191,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="B18" t="b">
         <v>0</v>
@@ -2287,7 +2287,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21" t="b">
         <v>1</v>
@@ -2319,7 +2319,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B22" t="b">
         <v>1</v>
@@ -2331,7 +2331,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="b">
         <v>1</v>
@@ -2346,15 +2346,15 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
@@ -2363,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="b">
         <v>1</v>
@@ -2543,16 +2543,16 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="b">
         <v>0</v>
       </c>
       <c r="D29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
@@ -2575,7 +2575,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -2584,7 +2584,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
@@ -2602,12 +2602,12 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -2639,7 +2639,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -2671,7 +2671,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -2703,7 +2703,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -2735,7 +2735,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B35" t="b">
         <v>0</v>
@@ -2812,7 +2812,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -2876,7 +2876,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -2908,13 +2908,13 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
       </c>
       <c r="C5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
@@ -2935,12 +2935,12 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -2949,7 +2949,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -2967,12 +2967,12 @@
         <v>1</v>
       </c>
       <c r="J6">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -3004,7 +3004,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -3036,16 +3036,16 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
       </c>
       <c r="C9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -3068,22 +3068,22 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
       </c>
       <c r="F10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
@@ -3095,21 +3095,21 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B11" t="b">
         <v>0</v>
       </c>
       <c r="C11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -3199,10 +3199,10 @@
         <v>20</v>
       </c>
       <c r="B14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -3228,7 +3228,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -3243,48 +3243,48 @@
         <v>1</v>
       </c>
       <c r="F15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
       </c>
       <c r="C16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -3292,22 +3292,22 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B17" t="b">
         <v>0</v>
       </c>
       <c r="C17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
@@ -3324,7 +3324,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
@@ -3356,7 +3356,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B19" t="b">
         <v>1</v>
@@ -3368,19 +3368,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>5</v>
@@ -3388,13 +3388,13 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
@@ -3403,7 +3403,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
@@ -3415,12 +3415,12 @@
         <v>1</v>
       </c>
       <c r="J20">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B21" t="b">
         <v>1</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
@@ -3447,7 +3447,7 @@
         <v>1</v>
       </c>
       <c r="J21">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -3484,13 +3484,13 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
@@ -3499,19 +3499,19 @@
         <v>0</v>
       </c>
       <c r="F23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="b">
         <v>1</v>
       </c>
       <c r="I23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -3548,7 +3548,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -3612,22 +3612,22 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
       </c>
       <c r="C27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
       </c>
       <c r="F27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
@@ -3639,7 +3639,7 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -3708,7 +3708,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -3717,13 +3717,13 @@
         <v>0</v>
       </c>
       <c r="D30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
       </c>
       <c r="F30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
@@ -3740,7 +3740,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -3772,13 +3772,13 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
       </c>
       <c r="C32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" t="b">
         <v>0</v>
@@ -3799,12 +3799,12 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -3836,7 +3836,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -3868,7 +3868,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B35" t="b">
         <v>0</v>
@@ -4041,7 +4041,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -4050,7 +4050,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -4068,12 +4068,12 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -4105,7 +4105,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -4137,16 +4137,16 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
       </c>
       <c r="C8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -4169,10 +4169,10 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="b">
         <v>1</v>
@@ -4187,36 +4187,36 @@
         <v>1</v>
       </c>
       <c r="G9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="b">
         <v>1</v>
       </c>
       <c r="I9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
@@ -4233,13 +4233,13 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
@@ -4251,13 +4251,13 @@
         <v>1</v>
       </c>
       <c r="G11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
       </c>
       <c r="I11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
         <v>6</v>
@@ -4265,22 +4265,22 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
@@ -4292,15 +4292,15 @@
         <v>1</v>
       </c>
       <c r="J12">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
@@ -4315,21 +4315,21 @@
         <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
@@ -4344,36 +4344,36 @@
         <v>1</v>
       </c>
       <c r="F14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B15" t="b">
         <v>0</v>
       </c>
       <c r="C15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="b">
         <v>1</v>
@@ -4425,13 +4425,13 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
       </c>
       <c r="C17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
@@ -4440,16 +4440,16 @@
         <v>1</v>
       </c>
       <c r="F17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
         <v>5</v>
@@ -4457,13 +4457,13 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
       </c>
       <c r="C18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
@@ -4484,44 +4484,44 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
       </c>
       <c r="E19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="b">
         <v>1</v>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B20" t="b">
         <v>0</v>
@@ -4553,10 +4553,10 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="b">
         <v>1</v>
@@ -4565,19 +4565,19 @@
         <v>0</v>
       </c>
       <c r="E21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
       </c>
       <c r="I21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>4</v>
@@ -4585,10 +4585,10 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="b">
         <v>1</v>
@@ -4597,19 +4597,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
       </c>
       <c r="I22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22">
         <v>4</v>
@@ -4617,10 +4617,10 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="b">
         <v>1</v>
@@ -4635,27 +4635,27 @@
         <v>0</v>
       </c>
       <c r="G23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="b">
         <v>1</v>
       </c>
       <c r="I23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
       </c>
       <c r="C24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
@@ -4676,21 +4676,21 @@
         <v>1</v>
       </c>
       <c r="J24">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
       </c>
       <c r="C25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
@@ -4699,13 +4699,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
       </c>
       <c r="I25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25">
         <v>3</v>
@@ -4713,16 +4713,16 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
       </c>
       <c r="C26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
@@ -4731,13 +4731,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" t="b">
         <v>1</v>
       </c>
       <c r="I26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26">
         <v>3</v>
@@ -4745,16 +4745,16 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="B27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" t="b">
         <v>1</v>
       </c>
       <c r="D27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
@@ -4777,16 +4777,16 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="B28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
@@ -4804,12 +4804,12 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -4818,7 +4818,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
@@ -4827,27 +4827,27 @@
         <v>0</v>
       </c>
       <c r="G29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
       <c r="I29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
@@ -4856,7 +4856,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
@@ -4868,27 +4868,27 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
       </c>
       <c r="C31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
       </c>
       <c r="F31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
@@ -4900,7 +4900,7 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -4911,7 +4911,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" t="b">
         <v>1</v>
@@ -4932,12 +4932,12 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -4969,13 +4969,13 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
       </c>
       <c r="C34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" t="b">
         <v>0</v>
@@ -4996,18 +4996,18 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B35" t="b">
         <v>0</v>
       </c>
       <c r="C35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" t="b">
         <v>0</v>
@@ -5028,7 +5028,7 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Modeling Stage/Feature Selection/Nova_IMS_feature_selection_Date_threshold_50.xlsx
+++ b/Data/Modeling Stage/Feature Selection/Nova_IMS_feature_selection_Date_threshold_50.xlsx
@@ -52,6 +52,9 @@
     <t>Total time online (min)</t>
   </si>
   <si>
+    <t>Start of Session 1 (%)</t>
+  </si>
+  <si>
     <t>Resources viewed</t>
   </si>
   <si>
@@ -61,7 +64,7 @@
     <t>Largest period of inactivity (h)</t>
   </si>
   <si>
-    <t>Start of Session 1 (%)</t>
+    <t>Start of Session 2 (%)</t>
   </si>
   <si>
     <t>Clicks on course</t>
@@ -70,16 +73,13 @@
     <t>Number of sessions</t>
   </si>
   <si>
+    <t>Start of Session 10 (%)</t>
+  </si>
+  <si>
     <t>Clicks (% of course total)</t>
   </si>
   <si>
-    <t>Start of Session 2 (%)</t>
-  </si>
-  <si>
     <t>Number of clicks</t>
-  </si>
-  <si>
-    <t>Start of Session 10 (%)</t>
   </si>
   <si>
     <t>Clicks per session</t>
@@ -106,10 +106,10 @@
     <t>Days with no interaction (%)</t>
   </si>
   <si>
-    <t>Start of Session 8 (%)</t>
+    <t>Start of Session 5 (%)</t>
   </si>
   <si>
-    <t>Start of Session 5 (%)</t>
+    <t>Clicks on forum</t>
   </si>
   <si>
     <t>Start of Session 3 (%)</t>
@@ -127,13 +127,13 @@
     <t>Start of Session 9 (%)</t>
   </si>
   <si>
-    <t>Clicks on forum</t>
-  </si>
-  <si>
     <t>Quizzes started</t>
   </si>
   <si>
     <t>Start of Session 6 (%)</t>
+  </si>
+  <si>
+    <t>Start of Session 8 (%)</t>
   </si>
   <si>
     <t>Assignments submitted</t>
@@ -145,10 +145,10 @@
     <t>Discussions viewed</t>
   </si>
   <si>
-    <t>Submissions (% of course total)</t>
+    <t>Start of Session 7 (%)</t>
   </si>
   <si>
-    <t>Start of Session 7 (%)</t>
+    <t>Submissions (% of course total)</t>
   </si>
 </sst>
 </file>
@@ -651,7 +651,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -669,7 +669,7 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -680,10 +680,10 @@
         <v>1</v>
       </c>
       <c r="C6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -744,10 +744,10 @@
         <v>1</v>
       </c>
       <c r="C8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -776,7 +776,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="b">
         <v>1</v>
       </c>
       <c r="I9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -808,13 +808,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
       </c>
       <c r="E10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="b">
         <v>1</v>
@@ -837,13 +837,13 @@
         <v>19</v>
       </c>
       <c r="B11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -852,16 +852,16 @@
         <v>1</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
       </c>
       <c r="I11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -869,7 +869,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="b">
         <v>0</v>
@@ -878,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="b">
         <v>1</v>
@@ -1157,7 +1157,7 @@
         <v>29</v>
       </c>
       <c r="B21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="b">
         <v>1</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1192,7 +1192,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
@@ -1381,13 +1381,13 @@
         <v>36</v>
       </c>
       <c r="B28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" t="b">
         <v>0</v>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
@@ -1419,13 +1419,13 @@
         <v>0</v>
       </c>
       <c r="D29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
       </c>
       <c r="F29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
@@ -1711,7 +1711,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -1743,7 +1743,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -1807,7 +1807,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -1839,16 +1839,16 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
       </c>
       <c r="C7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -1871,10 +1871,10 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -1898,18 +1898,18 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
@@ -1921,13 +1921,13 @@
         <v>1</v>
       </c>
       <c r="G9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="b">
         <v>1</v>
       </c>
       <c r="I9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>6</v>
@@ -1935,16 +1935,16 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
       </c>
       <c r="C10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -1953,13 +1953,13 @@
         <v>1</v>
       </c>
       <c r="G10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
       <c r="I10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
         <v>6</v>
@@ -1967,7 +1967,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -1976,7 +1976,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
@@ -1994,36 +1994,36 @@
         <v>1</v>
       </c>
       <c r="J11">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
       </c>
       <c r="C12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="b">
         <v>0</v>
       </c>
       <c r="E12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="b">
         <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>5</v>
@@ -2031,7 +2031,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -2063,31 +2063,31 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="b">
         <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
         <v>5</v>
@@ -2127,31 +2127,31 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
       </c>
       <c r="C16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="b">
         <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -2159,13 +2159,13 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
@@ -2177,13 +2177,13 @@
         <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>5</v>
@@ -2191,7 +2191,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="B18" t="b">
         <v>0</v>
@@ -2203,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="b">
         <v>1</v>
@@ -2218,7 +2218,7 @@
         <v>1</v>
       </c>
       <c r="J18">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -2287,7 +2287,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B21" t="b">
         <v>1</v>
@@ -2319,7 +2319,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B22" t="b">
         <v>1</v>
@@ -2331,7 +2331,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="b">
         <v>1</v>
@@ -2346,15 +2346,15 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
@@ -2363,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" t="b">
         <v>1</v>
@@ -2383,7 +2383,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -2479,7 +2479,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -2511,16 +2511,16 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" t="b">
         <v>0</v>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
@@ -2543,7 +2543,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
@@ -2570,12 +2570,12 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -2607,7 +2607,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -2671,7 +2671,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -2703,7 +2703,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -2735,7 +2735,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B35" t="b">
         <v>0</v>
@@ -2812,7 +2812,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -2844,7 +2844,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -2876,7 +2876,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -2908,13 +2908,13 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
       </c>
       <c r="C5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
@@ -2935,12 +2935,12 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -2949,7 +2949,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -2967,12 +2967,12 @@
         <v>1</v>
       </c>
       <c r="J6">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -3004,7 +3004,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -3036,16 +3036,16 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
       </c>
       <c r="C9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -3068,7 +3068,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -3083,7 +3083,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
@@ -3095,27 +3095,27 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
       </c>
       <c r="E11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
@@ -3132,13 +3132,13 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
@@ -3150,13 +3150,13 @@
         <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
         <v>6</v>
@@ -3164,7 +3164,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -3196,13 +3196,13 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -3228,7 +3228,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -3260,31 +3260,31 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="b">
         <v>1</v>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -3292,22 +3292,22 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
@@ -3324,7 +3324,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
@@ -3336,19 +3336,19 @@
         <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
         <v>5</v>
@@ -3356,10 +3356,10 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="b">
         <v>1</v>
@@ -3371,16 +3371,16 @@
         <v>1</v>
       </c>
       <c r="F19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
         <v>5</v>
@@ -3388,42 +3388,42 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
       </c>
       <c r="E20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="b">
         <v>1</v>
       </c>
       <c r="G20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
       </c>
       <c r="I20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="B21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
@@ -3452,31 +3452,31 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
       </c>
       <c r="I22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>4</v>
@@ -3484,13 +3484,13 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
@@ -3499,24 +3499,24 @@
         <v>0</v>
       </c>
       <c r="F23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="b">
         <v>1</v>
       </c>
       <c r="I23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -3525,7 +3525,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -3543,12 +3543,12 @@
         <v>1</v>
       </c>
       <c r="J24">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -3612,7 +3612,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -3621,7 +3621,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
@@ -3630,36 +3630,36 @@
         <v>0</v>
       </c>
       <c r="G27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
       <c r="I27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
       </c>
       <c r="C28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
       </c>
       <c r="F28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
@@ -3671,12 +3671,12 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -3708,7 +3708,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -3717,13 +3717,13 @@
         <v>0</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
       </c>
       <c r="F30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
@@ -3740,7 +3740,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -3749,13 +3749,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
       </c>
       <c r="F31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
@@ -3772,7 +3772,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -3836,7 +3836,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -3868,7 +3868,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B35" t="b">
         <v>0</v>
@@ -4009,7 +4009,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -4041,7 +4041,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -4050,7 +4050,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -4068,12 +4068,12 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -4105,7 +4105,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -4143,10 +4143,10 @@
         <v>1</v>
       </c>
       <c r="C8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -4169,16 +4169,16 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="b">
         <v>1</v>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -4187,13 +4187,13 @@
         <v>1</v>
       </c>
       <c r="G9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="b">
         <v>1</v>
       </c>
       <c r="I9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9">
         <v>6</v>
@@ -4201,7 +4201,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -4210,10 +4210,10 @@
         <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -4233,13 +4233,13 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
@@ -4251,13 +4251,13 @@
         <v>1</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
       </c>
       <c r="I11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>6</v>
@@ -4265,22 +4265,22 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
@@ -4292,21 +4292,21 @@
         <v>1</v>
       </c>
       <c r="J12">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -4315,21 +4315,21 @@
         <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
@@ -4361,13 +4361,13 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
@@ -4379,13 +4379,13 @@
         <v>1</v>
       </c>
       <c r="G15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>5</v>
@@ -4393,13 +4393,13 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
@@ -4411,13 +4411,13 @@
         <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -4425,7 +4425,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
@@ -4437,10 +4437,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
@@ -4457,13 +4457,13 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
       </c>
       <c r="C18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
@@ -4484,36 +4484,36 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
       </c>
       <c r="E19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>4</v>
@@ -4521,7 +4521,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B20" t="b">
         <v>0</v>
@@ -4553,42 +4553,42 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
       </c>
       <c r="E21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
       </c>
       <c r="I21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="b">
         <v>1</v>
@@ -4603,27 +4603,27 @@
         <v>0</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
       </c>
       <c r="I22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
@@ -4635,13 +4635,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="b">
         <v>1</v>
       </c>
       <c r="I23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23">
         <v>3</v>
@@ -4681,13 +4681,13 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
       </c>
       <c r="C25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
@@ -4696,16 +4696,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
       </c>
       <c r="I25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>3</v>
@@ -4713,13 +4713,13 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
@@ -4731,13 +4731,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="b">
         <v>1</v>
       </c>
       <c r="I26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26">
         <v>3</v>
@@ -4745,13 +4745,13 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="B27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" t="b">
         <v>0</v>
@@ -4763,13 +4763,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
       <c r="I27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27">
         <v>3</v>
@@ -4777,7 +4777,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -4809,7 +4809,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -4841,7 +4841,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -4850,13 +4850,13 @@
         <v>0</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
       </c>
       <c r="F30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
@@ -4873,7 +4873,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -4882,13 +4882,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
       </c>
       <c r="F31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
@@ -4905,7 +4905,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -5001,7 +5001,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" t="b">
         <v>0</v>

--- a/Data/Modeling Stage/Feature Selection/Nova_IMS_feature_selection_Date_threshold_50.xlsx
+++ b/Data/Modeling Stage/Feature Selection/Nova_IMS_feature_selection_Date_threshold_50.xlsx
@@ -49,6 +49,9 @@
     <t>Feature</t>
   </si>
   <si>
+    <t>Number of sessions</t>
+  </si>
+  <si>
     <t>Total time online (min)</t>
   </si>
   <si>
@@ -70,16 +73,19 @@
     <t>Clicks on course</t>
   </si>
   <si>
-    <t>Number of sessions</t>
+    <t>Number of clicks</t>
+  </si>
+  <si>
+    <t>Clicks (% of course total)</t>
+  </si>
+  <si>
+    <t>Clicks on folder</t>
   </si>
   <si>
     <t>Start of Session 10 (%)</t>
   </si>
   <si>
-    <t>Clicks (% of course total)</t>
-  </si>
-  <si>
-    <t>Number of clicks</t>
+    <t>Days with no interaction (%)</t>
   </si>
   <si>
     <t>Clicks per session</t>
@@ -88,7 +94,7 @@
     <t>Clicks per day</t>
   </si>
   <si>
-    <t>Clicks on folder</t>
+    <t>Assignments viewed</t>
   </si>
   <si>
     <t>Links viewed</t>
@@ -100,52 +106,46 @@
     <t>Average session duration (min)</t>
   </si>
   <si>
-    <t>Assignments viewed</t>
+    <t>Start of Session 6 (%)</t>
   </si>
   <si>
-    <t>Days with no interaction (%)</t>
+    <t>Quizzes started</t>
+  </si>
+  <si>
+    <t>Assignments submitted</t>
+  </si>
+  <si>
+    <t>Start of Session 9 (%)</t>
   </si>
   <si>
     <t>Start of Session 5 (%)</t>
   </si>
   <si>
-    <t>Clicks on forum</t>
+    <t>Start of Session 4 (%)</t>
   </si>
   <si>
     <t>Start of Session 3 (%)</t>
   </si>
   <si>
-    <t>Start of Session 4 (%)</t>
+    <t>Start of Session 8 (%)</t>
   </si>
   <si>
-    <t>Number of days</t>
+    <t>Clicks on forum</t>
+  </si>
+  <si>
+    <t>Start of Session 7 (%)</t>
+  </si>
+  <si>
+    <t>Discussions viewed</t>
+  </si>
+  <si>
+    <t>Files downloaded</t>
   </si>
   <si>
     <t>Forum posts</t>
   </si>
   <si>
-    <t>Start of Session 9 (%)</t>
-  </si>
-  <si>
-    <t>Quizzes started</t>
-  </si>
-  <si>
-    <t>Start of Session 6 (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 8 (%)</t>
-  </si>
-  <si>
-    <t>Assignments submitted</t>
-  </si>
-  <si>
-    <t>Files downloaded</t>
-  </si>
-  <si>
-    <t>Discussions viewed</t>
-  </si>
-  <si>
-    <t>Start of Session 7 (%)</t>
+    <t>Number of days</t>
   </si>
   <si>
     <t>Submissions (% of course total)</t>
@@ -683,7 +683,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -701,7 +701,7 @@
         <v>1</v>
       </c>
       <c r="J6">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -776,10 +776,10 @@
         <v>1</v>
       </c>
       <c r="C9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -805,7 +805,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
@@ -814,7 +814,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="b">
         <v>1</v>
@@ -872,13 +872,13 @@
         <v>0</v>
       </c>
       <c r="C12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="b">
         <v>1</v>
@@ -893,7 +893,7 @@
         <v>1</v>
       </c>
       <c r="J12">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -910,22 +910,22 @@
         <v>0</v>
       </c>
       <c r="E13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="b">
         <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -933,13 +933,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
@@ -965,28 +965,28 @@
         <v>23</v>
       </c>
       <c r="B15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="b">
         <v>1</v>
       </c>
       <c r="G15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>5</v>
@@ -1029,28 +1029,28 @@
         <v>25</v>
       </c>
       <c r="B17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="b">
         <v>1</v>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
         <v>5</v>
@@ -1093,31 +1093,31 @@
         <v>27</v>
       </c>
       <c r="B19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1125,13 +1125,13 @@
         <v>28</v>
       </c>
       <c r="B20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="b">
         <v>1</v>
@@ -1149,7 +1149,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1189,13 +1189,13 @@
         <v>30</v>
       </c>
       <c r="B22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="b">
         <v>1</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
@@ -1224,16 +1224,16 @@
         <v>0</v>
       </c>
       <c r="C23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
       </c>
       <c r="F23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
@@ -1245,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
@@ -1277,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1288,16 +1288,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
       </c>
       <c r="F25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1320,16 +1320,16 @@
         <v>0</v>
       </c>
       <c r="C26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
       </c>
       <c r="F26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="b">
         <v>0</v>
@@ -1373,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1384,16 +1384,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
       </c>
       <c r="F28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
@@ -1405,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1413,10 +1413,10 @@
         <v>37</v>
       </c>
       <c r="B29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" t="b">
         <v>0</v>
@@ -1425,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
@@ -1437,7 +1437,7 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1448,7 +1448,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
@@ -1457,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
@@ -1480,10 +1480,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" t="b">
         <v>0</v>
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1547,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="b">
         <v>0</v>
@@ -1565,7 +1565,7 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1579,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" t="b">
         <v>0</v>
@@ -1597,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1608,7 +1608,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35" t="b">
         <v>0</v>
@@ -1629,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1679,7 +1679,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -1711,7 +1711,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -1743,7 +1743,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -1807,16 +1807,16 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
       </c>
       <c r="C6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -1839,16 +1839,16 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -1866,24 +1866,24 @@
         <v>1</v>
       </c>
       <c r="J7">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="b">
         <v>1</v>
@@ -1903,13 +1903,13 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
@@ -1921,13 +1921,13 @@
         <v>1</v>
       </c>
       <c r="G9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="b">
         <v>1</v>
       </c>
       <c r="I9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9">
         <v>6</v>
@@ -1935,16 +1935,16 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
       </c>
       <c r="C10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -1953,13 +1953,13 @@
         <v>1</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
       <c r="I10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>6</v>
@@ -1967,7 +1967,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -1979,7 +1979,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="b">
         <v>1</v>
@@ -1994,44 +1994,44 @@
         <v>1</v>
       </c>
       <c r="J11">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
       </c>
       <c r="C12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="b">
         <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -2063,31 +2063,31 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="b">
         <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>5</v>
@@ -2095,7 +2095,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -2127,31 +2127,31 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
       </c>
       <c r="C16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="b">
         <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -2159,13 +2159,13 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
@@ -2177,13 +2177,13 @@
         <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
         <v>5</v>
@@ -2191,7 +2191,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="B18" t="b">
         <v>0</v>
@@ -2223,7 +2223,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B19" t="b">
         <v>0</v>
@@ -2232,13 +2232,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
       </c>
       <c r="F19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
@@ -2255,7 +2255,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B20" t="b">
         <v>0</v>
@@ -2264,13 +2264,13 @@
         <v>0</v>
       </c>
       <c r="D20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
       </c>
       <c r="F20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
@@ -2287,7 +2287,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21" t="b">
         <v>1</v>
@@ -2319,7 +2319,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22" t="b">
         <v>1</v>
@@ -2351,7 +2351,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B23" t="b">
         <v>1</v>
@@ -2383,7 +2383,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -2415,7 +2415,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -2447,7 +2447,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -2479,7 +2479,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -2511,16 +2511,16 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" t="b">
         <v>0</v>
       </c>
       <c r="D28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
@@ -2543,7 +2543,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
@@ -2570,12 +2570,12 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -2607,7 +2607,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -2639,7 +2639,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -2671,7 +2671,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -2703,7 +2703,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -2735,7 +2735,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="B35" t="b">
         <v>0</v>
@@ -2812,7 +2812,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -2844,7 +2844,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -2876,13 +2876,13 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
       </c>
       <c r="C4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
@@ -2903,12 +2903,12 @@
         <v>1</v>
       </c>
       <c r="J4">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -2917,7 +2917,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -2935,12 +2935,12 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -2949,7 +2949,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -2967,12 +2967,12 @@
         <v>1</v>
       </c>
       <c r="J6">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -3004,7 +3004,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -3042,10 +3042,10 @@
         <v>1</v>
       </c>
       <c r="C9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -3068,16 +3068,16 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
       </c>
       <c r="C10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -3100,22 +3100,22 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
       </c>
       <c r="E11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
@@ -3132,13 +3132,13 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
@@ -3150,13 +3150,13 @@
         <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>6</v>
@@ -3164,7 +3164,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -3196,10 +3196,10 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
@@ -3214,45 +3214,45 @@
         <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
       </c>
       <c r="C15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
         <v>5</v>
@@ -3260,16 +3260,16 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B16" t="b">
         <v>0</v>
       </c>
       <c r="C16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
@@ -3278,13 +3278,13 @@
         <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -3292,7 +3292,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
@@ -3304,19 +3304,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>5</v>
@@ -3324,19 +3324,19 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
       </c>
       <c r="C18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -3356,22 +3356,22 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="B19" t="b">
         <v>0</v>
       </c>
       <c r="C19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
       </c>
       <c r="E19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
@@ -3383,44 +3383,44 @@
         <v>1</v>
       </c>
       <c r="J19">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B20" t="b">
         <v>1</v>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
       </c>
       <c r="E20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
       </c>
       <c r="I20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B21" t="b">
         <v>0</v>
@@ -3429,13 +3429,13 @@
         <v>0</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
@@ -3452,13 +3452,13 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
@@ -3467,30 +3467,30 @@
         <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
       </c>
       <c r="I22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B23" t="b">
         <v>1</v>
       </c>
       <c r="C23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
@@ -3511,12 +3511,12 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -3525,7 +3525,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -3543,12 +3543,12 @@
         <v>1</v>
       </c>
       <c r="J24">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -3560,19 +3560,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
       </c>
       <c r="I25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>3</v>
@@ -3580,7 +3580,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -3592,19 +3592,19 @@
         <v>0</v>
       </c>
       <c r="E26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" t="b">
         <v>1</v>
       </c>
       <c r="I26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26">
         <v>3</v>
@@ -3612,7 +3612,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -3621,7 +3621,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
@@ -3630,36 +3630,36 @@
         <v>0</v>
       </c>
       <c r="G27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
       <c r="I27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
       </c>
       <c r="C28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
       </c>
       <c r="F28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
@@ -3671,12 +3671,12 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -3685,13 +3685,13 @@
         <v>0</v>
       </c>
       <c r="D29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
       </c>
       <c r="F29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
@@ -3708,7 +3708,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -3717,13 +3717,13 @@
         <v>0</v>
       </c>
       <c r="D30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
       </c>
       <c r="F30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
@@ -3740,7 +3740,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -3772,7 +3772,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -3804,7 +3804,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -3836,7 +3836,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -3945,7 +3945,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -3977,7 +3977,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -4009,7 +4009,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -4041,7 +4041,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -4050,7 +4050,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -4068,12 +4068,12 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -4105,7 +4105,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -4137,16 +4137,16 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -4169,10 +4169,10 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="b">
         <v>1</v>
@@ -4196,27 +4196,27 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
       </c>
       <c r="C10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
       </c>
       <c r="F10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
@@ -4228,12 +4228,12 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -4245,19 +4245,19 @@
         <v>1</v>
       </c>
       <c r="E11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
       </c>
       <c r="I11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
         <v>6</v>
@@ -4265,22 +4265,22 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
       </c>
       <c r="C12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
@@ -4297,22 +4297,22 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
       <c r="F13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
@@ -4329,7 +4329,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
@@ -4341,19 +4341,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
         <v>5</v>
@@ -4361,7 +4361,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -4393,13 +4393,13 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
@@ -4411,13 +4411,13 @@
         <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -4425,31 +4425,31 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
       </c>
       <c r="C17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="b">
         <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>5</v>
@@ -4457,16 +4457,16 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="b">
         <v>1</v>
       </c>
       <c r="D18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="b">
         <v>1</v>
@@ -4489,10 +4489,10 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="b">
         <v>1</v>
@@ -4501,19 +4501,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
         <v>4</v>
@@ -4521,13 +4521,13 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B20" t="b">
         <v>0</v>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
@@ -4536,7 +4536,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
@@ -4553,45 +4553,45 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
       </c>
       <c r="E21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
       </c>
       <c r="I21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
@@ -4603,13 +4603,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
       </c>
       <c r="I22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22">
         <v>3</v>
@@ -4617,7 +4617,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -4649,7 +4649,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -4681,7 +4681,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -4713,10 +4713,10 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" t="b">
         <v>1</v>
@@ -4740,12 +4740,12 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -4754,7 +4754,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
@@ -4763,21 +4763,21 @@
         <v>0</v>
       </c>
       <c r="G27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
       <c r="I27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -4809,7 +4809,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -4841,16 +4841,16 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
       </c>
       <c r="C30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
@@ -4873,7 +4873,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -4905,16 +4905,16 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32" t="b">
         <v>0</v>
       </c>
       <c r="D32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="b">
         <v>0</v>
@@ -4937,7 +4937,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -4969,7 +4969,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -4978,7 +4978,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" t="b">
         <v>0</v>
@@ -4996,12 +4996,12 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B35" t="b">
         <v>0</v>

--- a/Data/Modeling Stage/Feature Selection/Nova_IMS_feature_selection_Date_threshold_50.xlsx
+++ b/Data/Modeling Stage/Feature Selection/Nova_IMS_feature_selection_Date_threshold_50.xlsx
@@ -49,13 +49,7 @@
     <t>Feature</t>
   </si>
   <si>
-    <t>Number of sessions</t>
-  </si>
-  <si>
     <t>Total time online (min)</t>
-  </si>
-  <si>
-    <t>Start of Session 1 (%)</t>
   </si>
   <si>
     <t>Resources viewed</t>
@@ -67,25 +61,25 @@
     <t>Largest period of inactivity (h)</t>
   </si>
   <si>
+    <t>Start of Session 1 (%)</t>
+  </si>
+  <si>
     <t>Start of Session 2 (%)</t>
   </si>
   <si>
     <t>Clicks on course</t>
   </si>
   <si>
-    <t>Number of clicks</t>
+    <t>Number of sessions</t>
   </si>
   <si>
     <t>Clicks (% of course total)</t>
   </si>
   <si>
-    <t>Clicks on folder</t>
+    <t>Number of clicks</t>
   </si>
   <si>
     <t>Start of Session 10 (%)</t>
-  </si>
-  <si>
-    <t>Days with no interaction (%)</t>
   </si>
   <si>
     <t>Clicks per session</t>
@@ -94,7 +88,7 @@
     <t>Clicks per day</t>
   </si>
   <si>
-    <t>Assignments viewed</t>
+    <t>Clicks on folder</t>
   </si>
   <si>
     <t>Links viewed</t>
@@ -106,46 +100,52 @@
     <t>Average session duration (min)</t>
   </si>
   <si>
-    <t>Start of Session 6 (%)</t>
+    <t>Assignments viewed</t>
+  </si>
+  <si>
+    <t>Days with no interaction (%)</t>
+  </si>
+  <si>
+    <t>Start of Session 5 (%)</t>
+  </si>
+  <si>
+    <t>Start of Session 3 (%)</t>
+  </si>
+  <si>
+    <t>Start of Session 4 (%)</t>
+  </si>
+  <si>
+    <t>Number of days</t>
+  </si>
+  <si>
+    <t>Forum posts</t>
+  </si>
+  <si>
+    <t>Start of Session 9 (%)</t>
+  </si>
+  <si>
+    <t>Clicks on forum</t>
   </si>
   <si>
     <t>Quizzes started</t>
   </si>
   <si>
-    <t>Assignments submitted</t>
-  </si>
-  <si>
-    <t>Start of Session 9 (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 5 (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 4 (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 3 (%)</t>
+    <t>Start of Session 6 (%)</t>
   </si>
   <si>
     <t>Start of Session 8 (%)</t>
   </si>
   <si>
-    <t>Clicks on forum</t>
+    <t>Assignments submitted</t>
   </si>
   <si>
-    <t>Start of Session 7 (%)</t>
+    <t>Files downloaded</t>
   </si>
   <si>
     <t>Discussions viewed</t>
   </si>
   <si>
-    <t>Files downloaded</t>
-  </si>
-  <si>
-    <t>Forum posts</t>
-  </si>
-  <si>
-    <t>Number of days</t>
+    <t>Start of Session 7 (%)</t>
   </si>
   <si>
     <t>Submissions (% of course total)</t>
@@ -651,7 +651,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -669,7 +669,7 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -680,7 +680,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
@@ -701,7 +701,7 @@
         <v>1</v>
       </c>
       <c r="J6">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -776,10 +776,10 @@
         <v>1</v>
       </c>
       <c r="C9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -805,13 +805,13 @@
         <v>18</v>
       </c>
       <c r="B10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -820,13 +820,13 @@
         <v>1</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
       <c r="I10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>6</v>
@@ -837,13 +837,13 @@
         <v>19</v>
       </c>
       <c r="B11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -852,16 +852,16 @@
         <v>1</v>
       </c>
       <c r="G11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
       </c>
       <c r="I11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -869,13 +869,13 @@
         <v>20</v>
       </c>
       <c r="B12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
@@ -893,7 +893,7 @@
         <v>1</v>
       </c>
       <c r="J12">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -910,22 +910,22 @@
         <v>0</v>
       </c>
       <c r="E13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="b">
         <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -933,13 +933,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
@@ -965,28 +965,28 @@
         <v>23</v>
       </c>
       <c r="B15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="b">
         <v>1</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
         <v>5</v>
@@ -1029,28 +1029,28 @@
         <v>25</v>
       </c>
       <c r="B17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="b">
         <v>1</v>
       </c>
       <c r="D17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>5</v>
@@ -1093,31 +1093,31 @@
         <v>27</v>
       </c>
       <c r="B19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1125,13 +1125,13 @@
         <v>28</v>
       </c>
       <c r="B20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="b">
         <v>1</v>
@@ -1149,7 +1149,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
@@ -1213,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1224,16 +1224,16 @@
         <v>0</v>
       </c>
       <c r="C23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
       </c>
       <c r="F23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
@@ -1245,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1256,16 +1256,16 @@
         <v>0</v>
       </c>
       <c r="C24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
       </c>
       <c r="F24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
@@ -1277,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1288,16 +1288,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
       </c>
       <c r="F25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1320,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1349,10 +1349,10 @@
         <v>35</v>
       </c>
       <c r="B27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" t="b">
         <v>0</v>
@@ -1361,7 +1361,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
@@ -1373,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1384,16 +1384,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
       </c>
       <c r="F28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
@@ -1405,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1413,10 +1413,10 @@
         <v>37</v>
       </c>
       <c r="B29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" t="b">
         <v>0</v>
@@ -1425,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
@@ -1437,7 +1437,7 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1448,7 +1448,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
@@ -1457,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
@@ -1480,10 +1480,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" t="b">
         <v>0</v>
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1547,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="b">
         <v>0</v>
@@ -1565,7 +1565,7 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1579,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34" t="b">
         <v>0</v>
@@ -1597,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1608,7 +1608,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" t="b">
         <v>0</v>
@@ -1629,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1679,7 +1679,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -1711,7 +1711,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -1743,7 +1743,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -1807,16 +1807,16 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
       </c>
       <c r="C6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -1839,10 +1839,10 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
@@ -1866,12 +1866,12 @@
         <v>1</v>
       </c>
       <c r="J7">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -1880,7 +1880,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
@@ -1898,24 +1898,24 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="b">
         <v>1</v>
@@ -1935,13 +1935,13 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
@@ -1953,13 +1953,13 @@
         <v>1</v>
       </c>
       <c r="G10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
       <c r="I10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
         <v>6</v>
@@ -1967,16 +1967,16 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
       </c>
       <c r="C11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -1985,13 +1985,13 @@
         <v>1</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
       </c>
       <c r="I11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>6</v>
@@ -1999,10 +1999,10 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="b">
         <v>0</v>
@@ -2011,7 +2011,7 @@
         <v>1</v>
       </c>
       <c r="E12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="b">
         <v>1</v>
@@ -2031,7 +2031,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -2043,27 +2043,27 @@
         <v>0</v>
       </c>
       <c r="E13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="b">
         <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
@@ -2095,7 +2095,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -2127,7 +2127,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -2159,13 +2159,13 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
@@ -2177,13 +2177,13 @@
         <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>5</v>
@@ -2191,13 +2191,13 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
@@ -2209,13 +2209,13 @@
         <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>5</v>
@@ -2223,7 +2223,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B19" t="b">
         <v>0</v>
@@ -2235,7 +2235,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="b">
         <v>1</v>
@@ -2250,12 +2250,12 @@
         <v>1</v>
       </c>
       <c r="J19">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B20" t="b">
         <v>0</v>
@@ -2287,10 +2287,10 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
@@ -2299,19 +2299,19 @@
         <v>0</v>
       </c>
       <c r="E21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="b">
         <v>1</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
       </c>
       <c r="I21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21">
         <v>4</v>
@@ -2319,19 +2319,19 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B22" t="b">
         <v>1</v>
       </c>
       <c r="C22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
       </c>
       <c r="E22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="b">
         <v>1</v>
@@ -2351,10 +2351,10 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
@@ -2363,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="b">
         <v>1</v>
@@ -2383,16 +2383,16 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -2410,12 +2410,12 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -2447,7 +2447,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -2479,7 +2479,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -2488,13 +2488,13 @@
         <v>0</v>
       </c>
       <c r="D27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
       </c>
       <c r="F27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
@@ -2511,16 +2511,16 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" t="b">
         <v>0</v>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
@@ -2543,7 +2543,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -2552,13 +2552,13 @@
         <v>0</v>
       </c>
       <c r="D29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
       </c>
       <c r="F29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
@@ -2575,7 +2575,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -2607,7 +2607,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -2639,7 +2639,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -2671,7 +2671,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -2703,7 +2703,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -2735,7 +2735,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B35" t="b">
         <v>0</v>
@@ -2812,7 +2812,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -2844,7 +2844,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -2876,13 +2876,13 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
       </c>
       <c r="C4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
@@ -2903,12 +2903,12 @@
         <v>1</v>
       </c>
       <c r="J4">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -2917,7 +2917,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -2935,12 +2935,12 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -2949,7 +2949,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -2967,12 +2967,12 @@
         <v>1</v>
       </c>
       <c r="J6">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -3004,7 +3004,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -3036,16 +3036,16 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
       </c>
       <c r="C9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -3068,13 +3068,13 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
       </c>
       <c r="C10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
@@ -3083,7 +3083,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
@@ -3100,7 +3100,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B11" t="b">
         <v>0</v>
@@ -3132,7 +3132,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -3164,7 +3164,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -3199,7 +3199,7 @@
         <v>19</v>
       </c>
       <c r="B14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
@@ -3214,33 +3214,33 @@
         <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
       </c>
       <c r="C15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -3255,18 +3255,18 @@
         <v>1</v>
       </c>
       <c r="J15">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
@@ -3278,13 +3278,13 @@
         <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -3292,7 +3292,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
@@ -3324,19 +3324,19 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
       </c>
       <c r="C18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -3356,7 +3356,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B19" t="b">
         <v>0</v>
@@ -3368,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="b">
         <v>1</v>
@@ -3383,21 +3383,21 @@
         <v>1</v>
       </c>
       <c r="J19">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
       </c>
       <c r="D20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
@@ -3420,7 +3420,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B21" t="b">
         <v>0</v>
@@ -3429,13 +3429,13 @@
         <v>0</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
@@ -3452,13 +3452,13 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
@@ -3467,30 +3467,30 @@
         <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
       </c>
       <c r="I22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B23" t="b">
         <v>1</v>
       </c>
       <c r="C23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
@@ -3511,18 +3511,18 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
       </c>
       <c r="C24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
@@ -3543,12 +3543,12 @@
         <v>1</v>
       </c>
       <c r="J24">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -3560,19 +3560,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
       </c>
       <c r="I25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25">
         <v>3</v>
@@ -3580,7 +3580,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -3612,22 +3612,22 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
       </c>
       <c r="C27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
       </c>
       <c r="F27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
@@ -3639,27 +3639,27 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
       </c>
       <c r="C28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
       </c>
       <c r="F28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
@@ -3671,7 +3671,7 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -3685,13 +3685,13 @@
         <v>0</v>
       </c>
       <c r="D29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
       </c>
       <c r="F29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
@@ -3708,7 +3708,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -3717,13 +3717,13 @@
         <v>0</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
       </c>
       <c r="F30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
@@ -3740,7 +3740,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -3772,7 +3772,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -3804,7 +3804,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -3836,7 +3836,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -3868,7 +3868,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B35" t="b">
         <v>0</v>
@@ -3945,7 +3945,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -3977,7 +3977,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -4009,7 +4009,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -4041,7 +4041,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -4050,7 +4050,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -4068,12 +4068,12 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -4105,7 +4105,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -4137,16 +4137,16 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -4169,16 +4169,16 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="b">
         <v>1</v>
       </c>
       <c r="D9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -4201,16 +4201,16 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -4228,12 +4228,12 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -4245,19 +4245,19 @@
         <v>1</v>
       </c>
       <c r="E11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
       </c>
       <c r="I11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>6</v>
@@ -4265,22 +4265,22 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
       </c>
       <c r="C12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
@@ -4297,10 +4297,10 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
@@ -4312,7 +4312,7 @@
         <v>1</v>
       </c>
       <c r="F13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
@@ -4329,7 +4329,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
@@ -4341,7 +4341,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -4356,12 +4356,12 @@
         <v>1</v>
       </c>
       <c r="J14">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -4393,7 +4393,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -4425,7 +4425,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
@@ -4457,16 +4457,16 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="b">
         <v>1</v>
       </c>
       <c r="D18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="b">
         <v>1</v>
@@ -4495,7 +4495,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
@@ -4504,7 +4504,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
@@ -4521,13 +4521,13 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B20" t="b">
         <v>0</v>
       </c>
       <c r="C20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
@@ -4536,7 +4536,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
@@ -4553,7 +4553,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B21" t="b">
         <v>1</v>
@@ -4585,13 +4585,13 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
       </c>
       <c r="C22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
@@ -4612,12 +4612,12 @@
         <v>1</v>
       </c>
       <c r="J22">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -4649,13 +4649,13 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="B24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
@@ -4667,13 +4667,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
       <c r="I24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>3</v>
@@ -4681,13 +4681,13 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
       </c>
       <c r="C25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
@@ -4696,16 +4696,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
       </c>
       <c r="I25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25">
         <v>3</v>
@@ -4713,13 +4713,13 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
       </c>
       <c r="C26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
@@ -4731,30 +4731,30 @@
         <v>0</v>
       </c>
       <c r="G26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" t="b">
         <v>1</v>
       </c>
       <c r="I26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
@@ -4772,12 +4772,12 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -4809,7 +4809,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -4841,16 +4841,16 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
       </c>
       <c r="C30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
@@ -4882,13 +4882,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
       </c>
       <c r="F31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
@@ -4908,7 +4908,7 @@
         <v>29</v>
       </c>
       <c r="B32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" t="b">
         <v>0</v>
@@ -4920,7 +4920,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
@@ -4937,16 +4937,16 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
       </c>
       <c r="C33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="b">
         <v>0</v>
@@ -4969,7 +4969,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>

--- a/Data/Modeling Stage/Feature Selection/Nova_IMS_feature_selection_Date_threshold_50.xlsx
+++ b/Data/Modeling Stage/Feature Selection/Nova_IMS_feature_selection_Date_threshold_50.xlsx
@@ -52,6 +52,9 @@
     <t>Total time online (min)</t>
   </si>
   <si>
+    <t>Start of Session 1 (%)</t>
+  </si>
+  <si>
     <t>Resources viewed</t>
   </si>
   <si>
@@ -61,19 +64,19 @@
     <t>Largest period of inactivity (h)</t>
   </si>
   <si>
-    <t>Start of Session 1 (%)</t>
-  </si>
-  <si>
     <t>Start of Session 2 (%)</t>
   </si>
   <si>
     <t>Clicks on course</t>
   </si>
   <si>
-    <t>Number of sessions</t>
+    <t>Clicks (% of course total)</t>
   </si>
   <si>
-    <t>Clicks (% of course total)</t>
+    <t>Clicks on folder</t>
+  </si>
+  <si>
+    <t>Number of sessions</t>
   </si>
   <si>
     <t>Number of clicks</t>
@@ -88,9 +91,6 @@
     <t>Clicks per day</t>
   </si>
   <si>
-    <t>Clicks on folder</t>
-  </si>
-  <si>
     <t>Links viewed</t>
   </si>
   <si>
@@ -100,16 +100,25 @@
     <t>Average session duration (min)</t>
   </si>
   <si>
-    <t>Assignments viewed</t>
-  </si>
-  <si>
     <t>Days with no interaction (%)</t>
   </si>
   <si>
     <t>Start of Session 5 (%)</t>
   </si>
   <si>
+    <t>Assignments viewed</t>
+  </si>
+  <si>
+    <t>Start of Session 8 (%)</t>
+  </si>
+  <si>
     <t>Start of Session 3 (%)</t>
+  </si>
+  <si>
+    <t>Clicks on forum</t>
+  </si>
+  <si>
+    <t>Forum posts</t>
   </si>
   <si>
     <t>Start of Session 4 (%)</t>
@@ -118,22 +127,13 @@
     <t>Number of days</t>
   </si>
   <si>
-    <t>Forum posts</t>
-  </si>
-  <si>
     <t>Start of Session 9 (%)</t>
-  </si>
-  <si>
-    <t>Clicks on forum</t>
   </si>
   <si>
     <t>Quizzes started</t>
   </si>
   <si>
     <t>Start of Session 6 (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 8 (%)</t>
   </si>
   <si>
     <t>Assignments submitted</t>
@@ -145,10 +145,10 @@
     <t>Discussions viewed</t>
   </si>
   <si>
-    <t>Start of Session 7 (%)</t>
+    <t>Submissions (% of course total)</t>
   </si>
   <si>
-    <t>Submissions (% of course total)</t>
+    <t>Start of Session 7 (%)</t>
   </si>
 </sst>
 </file>
@@ -651,7 +651,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -669,7 +669,7 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -680,10 +680,10 @@
         <v>1</v>
       </c>
       <c r="C6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -776,7 +776,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="b">
         <v>1</v>
       </c>
       <c r="I9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -808,25 +808,25 @@
         <v>1</v>
       </c>
       <c r="C10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
       </c>
       <c r="E10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="b">
         <v>1</v>
       </c>
       <c r="G10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
       <c r="I10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
         <v>6</v>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -861,7 +861,7 @@
         <v>1</v>
       </c>
       <c r="J11">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -869,7 +869,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="b">
         <v>0</v>
@@ -878,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="b">
         <v>1</v>
@@ -901,7 +901,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
@@ -910,19 +910,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="b">
         <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
         <v>5</v>
@@ -965,28 +965,28 @@
         <v>23</v>
       </c>
       <c r="B15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="b">
         <v>1</v>
       </c>
       <c r="G15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>5</v>
@@ -1102,19 +1102,19 @@
         <v>1</v>
       </c>
       <c r="E19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>4</v>
@@ -1125,16 +1125,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="b">
         <v>1</v>
@@ -1157,28 +1157,28 @@
         <v>29</v>
       </c>
       <c r="B21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
       </c>
       <c r="I21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21">
         <v>4</v>
@@ -1189,7 +1189,7 @@
         <v>30</v>
       </c>
       <c r="B22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
@@ -1213,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="b">
         <v>1</v>
@@ -1245,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1253,13 +1253,13 @@
         <v>32</v>
       </c>
       <c r="B24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -1277,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1349,13 +1349,13 @@
         <v>35</v>
       </c>
       <c r="B27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="b">
         <v>0</v>
       </c>
       <c r="D27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
@@ -1387,13 +1387,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
       </c>
       <c r="F28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
@@ -1419,13 +1419,13 @@
         <v>0</v>
       </c>
       <c r="D29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
       </c>
       <c r="F29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
@@ -1679,7 +1679,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -1711,7 +1711,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -1743,7 +1743,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -1752,7 +1752,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -1770,21 +1770,21 @@
         <v>1</v>
       </c>
       <c r="J4">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
       </c>
       <c r="C5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -1807,7 +1807,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -1839,16 +1839,16 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
       </c>
       <c r="C7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -1871,19 +1871,19 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
       </c>
       <c r="C8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="b">
         <v>1</v>
@@ -1898,24 +1898,24 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="b">
         <v>1</v>
@@ -1935,13 +1935,13 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
@@ -1953,13 +1953,13 @@
         <v>1</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
       <c r="I10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>6</v>
@@ -1967,34 +1967,34 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
       </c>
       <c r="C11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="b">
         <v>1</v>
       </c>
       <c r="G11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
       </c>
       <c r="I11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -2002,13 +2002,13 @@
         <v>17</v>
       </c>
       <c r="B12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -2017,21 +2017,21 @@
         <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -2043,22 +2043,22 @@
         <v>0</v>
       </c>
       <c r="E13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="b">
         <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -2066,28 +2066,28 @@
         <v>18</v>
       </c>
       <c r="B14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="b">
         <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
         <v>5</v>
@@ -2095,7 +2095,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -2127,7 +2127,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -2159,13 +2159,13 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
@@ -2177,13 +2177,13 @@
         <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
         <v>5</v>
@@ -2191,39 +2191,39 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="b">
         <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B19" t="b">
         <v>0</v>
@@ -2232,13 +2232,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
@@ -2250,12 +2250,12 @@
         <v>1</v>
       </c>
       <c r="J19">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B20" t="b">
         <v>0</v>
@@ -2264,13 +2264,13 @@
         <v>0</v>
       </c>
       <c r="D20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
       </c>
       <c r="F20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
@@ -2287,31 +2287,31 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B21" t="b">
         <v>0</v>
       </c>
       <c r="C21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
       </c>
       <c r="E21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="b">
         <v>1</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
       </c>
       <c r="I21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>4</v>
@@ -2319,19 +2319,19 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B22" t="b">
         <v>1</v>
       </c>
       <c r="C22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
       </c>
       <c r="E22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="b">
         <v>1</v>
@@ -2351,10 +2351,10 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
@@ -2363,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" t="b">
         <v>1</v>
@@ -2383,16 +2383,16 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -2410,12 +2410,12 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -2447,7 +2447,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -2479,7 +2479,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -2488,13 +2488,13 @@
         <v>0</v>
       </c>
       <c r="D27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
       </c>
       <c r="F27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
@@ -2511,16 +2511,16 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" t="b">
         <v>0</v>
       </c>
       <c r="D28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
@@ -2543,10 +2543,10 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" t="b">
         <v>0</v>
@@ -2558,7 +2558,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
@@ -2575,7 +2575,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -2584,7 +2584,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -2639,7 +2639,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -2671,7 +2671,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -2703,7 +2703,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -2735,7 +2735,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B35" t="b">
         <v>0</v>
@@ -2876,7 +2876,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -2908,7 +2908,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -2940,7 +2940,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -2972,7 +2972,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -3068,22 +3068,22 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
       </c>
       <c r="C10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
       </c>
       <c r="F10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
@@ -3095,12 +3095,12 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" t="b">
         <v>0</v>
@@ -3132,7 +3132,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -3164,7 +3164,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -3176,19 +3176,19 @@
         <v>1</v>
       </c>
       <c r="E13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
         <v>6</v>
@@ -3196,7 +3196,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B14" t="b">
         <v>0</v>
@@ -3228,7 +3228,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -3292,7 +3292,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
@@ -3324,7 +3324,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
@@ -3356,16 +3356,16 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19" t="b">
         <v>0</v>
       </c>
       <c r="C19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="b">
         <v>1</v>
@@ -3374,13 +3374,13 @@
         <v>1</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>5</v>
@@ -3388,7 +3388,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B20" t="b">
         <v>0</v>
@@ -3397,13 +3397,13 @@
         <v>0</v>
       </c>
       <c r="D20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
       </c>
       <c r="F20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
@@ -3420,13 +3420,13 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="B21" t="b">
         <v>0</v>
       </c>
       <c r="C21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
@@ -3455,28 +3455,28 @@
         <v>29</v>
       </c>
       <c r="B22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
       </c>
       <c r="I22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22">
         <v>4</v>
@@ -3484,7 +3484,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B23" t="b">
         <v>1</v>
@@ -3516,10 +3516,10 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="b">
         <v>1</v>
@@ -3531,16 +3531,16 @@
         <v>0</v>
       </c>
       <c r="F24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
       <c r="I24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>4</v>
@@ -3548,7 +3548,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -3580,7 +3580,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -3612,7 +3612,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -3644,7 +3644,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -3676,7 +3676,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -3740,7 +3740,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -3772,7 +3772,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -3804,7 +3804,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -3836,7 +3836,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -3977,7 +3977,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -4009,7 +4009,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -4041,7 +4041,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -4050,7 +4050,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -4068,12 +4068,12 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -4105,7 +4105,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -4137,16 +4137,16 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
       </c>
       <c r="C8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -4169,13 +4169,13 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
@@ -4201,7 +4201,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10" t="b">
         <v>0</v>
@@ -4233,7 +4233,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -4265,7 +4265,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -4274,33 +4274,33 @@
         <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
@@ -4315,33 +4315,33 @@
         <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
       </c>
       <c r="C14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -4356,18 +4356,18 @@
         <v>1</v>
       </c>
       <c r="J14">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
@@ -4379,13 +4379,13 @@
         <v>1</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
         <v>5</v>
@@ -4393,7 +4393,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -4425,13 +4425,13 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
       </c>
       <c r="C17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
@@ -4440,16 +4440,16 @@
         <v>1</v>
       </c>
       <c r="F17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
         <v>5</v>
@@ -4457,13 +4457,13 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
       </c>
       <c r="C18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
@@ -4484,12 +4484,12 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B19" t="b">
         <v>0</v>
@@ -4521,10 +4521,10 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="b">
         <v>1</v>
@@ -4533,19 +4533,19 @@
         <v>0</v>
       </c>
       <c r="E20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
       </c>
       <c r="G20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
       </c>
       <c r="I20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>4</v>
@@ -4553,31 +4553,31 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B21" t="b">
         <v>1</v>
       </c>
       <c r="C21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
       </c>
       <c r="E21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
       </c>
       <c r="I21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21">
         <v>4</v>
@@ -4585,13 +4585,13 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
       </c>
       <c r="C22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
@@ -4612,12 +4612,12 @@
         <v>1</v>
       </c>
       <c r="J22">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -4649,13 +4649,13 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
@@ -4667,13 +4667,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
       <c r="I24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24">
         <v>3</v>
@@ -4681,7 +4681,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -4713,7 +4713,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -4728,27 +4728,27 @@
         <v>0</v>
       </c>
       <c r="F26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="b">
         <v>1</v>
       </c>
       <c r="I26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="b">
         <v>1</v>
@@ -4772,7 +4772,7 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -4809,7 +4809,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -4841,7 +4841,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -4873,7 +4873,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -4905,7 +4905,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -4914,13 +4914,13 @@
         <v>0</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="b">
         <v>0</v>
       </c>
       <c r="F32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
@@ -4937,13 +4937,13 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
       </c>
       <c r="C33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
@@ -4964,12 +4964,12 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -4978,7 +4978,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34" t="b">
         <v>0</v>
@@ -4996,12 +4996,12 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B35" t="b">
         <v>0</v>
